--- a/_I_UJI-Omics-phd/_S_multiOmicsIntegra/_A_09_NetworksSKM-R/output/cytoscape/Reactions metabolites_ZR_2023-08-10 (1).xlsx
+++ b/_I_UJI-Omics-phd/_S_multiOmicsIntegra/_A_09_NetworksSKM-R/output/cytoscape/Reactions metabolites_ZR_2023-08-10 (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maria\OneDrive\Documentos\GitHub\UJI-Omics-phd\_I_UJI-Omics-phd\_S_multiOmicsIntegra\_A_09_NetworksSKM-R\output\cytoscape\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37E9A63C-89D8-46EF-BEC0-ECB5CD629099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DF5691A-C5B8-4FF0-B606-80A219E2E0FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10571" uniqueCount="806">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10572" uniqueCount="807">
   <si>
     <t>metabolite-from</t>
   </si>
@@ -2478,6 +2478,9 @@
   </si>
   <si>
     <t>isocitrate</t>
+  </si>
+  <si>
+    <t>comments</t>
   </si>
 </sst>
 </file>
@@ -3026,7 +3029,7 @@
     <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -3052,17 +3055,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Énfasis1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -44540,7 +44533,7 @@
   <dimension ref="A1:K63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -44548,7 +44541,7 @@
     <col min="3" max="3" width="18.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>755</v>
       </c>
@@ -44561,8 +44554,11 @@
       <c r="D1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>51</v>
       </c>
@@ -44576,7 +44572,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>51</v>
       </c>
@@ -44590,7 +44586,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -44604,7 +44600,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>471</v>
       </c>
@@ -44618,7 +44614,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -44632,7 +44628,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>51</v>
       </c>
@@ -44646,7 +44642,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>762</v>
       </c>
@@ -44660,7 +44656,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -44674,7 +44670,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -44688,7 +44684,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -44702,7 +44698,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -44713,7 +44709,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>764</v>
       </c>
@@ -44727,7 +44723,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>476</v>
       </c>
@@ -44741,7 +44737,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>476</v>
       </c>
@@ -44755,7 +44751,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>476</v>
       </c>
@@ -45235,7 +45231,7 @@
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A50" s="22" t="s">
+      <c r="A50" t="s">
         <v>784</v>
       </c>
       <c r="B50" t="s">
@@ -45244,157 +45240,157 @@
       <c r="C50" t="s">
         <v>795</v>
       </c>
-      <c r="D50" s="22" t="s">
+      <c r="D50" t="s">
         <v>779</v>
       </c>
-      <c r="E50" s="22" t="s">
+      <c r="E50" t="s">
         <v>792</v>
       </c>
       <c r="J50" s="12"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A51" s="22" t="s">
+      <c r="A51" t="s">
         <v>786</v>
       </c>
-      <c r="B51" s="22" t="s">
+      <c r="B51" t="s">
         <v>793</v>
       </c>
-      <c r="C51" s="22" t="s">
+      <c r="C51" t="s">
         <v>795</v>
       </c>
-      <c r="D51" s="22" t="s">
+      <c r="D51" t="s">
         <v>779</v>
       </c>
-      <c r="E51" s="22" t="s">
+      <c r="E51" t="s">
         <v>792</v>
       </c>
-      <c r="J51" s="13"/>
+      <c r="J51" s="12"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A52" s="22" t="s">
+      <c r="A52" t="s">
         <v>781</v>
       </c>
       <c r="B52" t="s">
         <v>794</v>
       </c>
-      <c r="C52" s="22" t="s">
+      <c r="C52" t="s">
         <v>795</v>
       </c>
-      <c r="D52" s="22" t="s">
+      <c r="D52" t="s">
         <v>779</v>
       </c>
-      <c r="E52" s="22" t="s">
+      <c r="E52" t="s">
         <v>792</v>
       </c>
-      <c r="J52" s="15"/>
+      <c r="J52" s="12"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A53" s="22" t="s">
+      <c r="A53" t="s">
         <v>789</v>
       </c>
       <c r="B53" t="s">
         <v>796</v>
       </c>
-      <c r="C53" s="22" t="s">
+      <c r="C53" t="s">
         <v>795</v>
       </c>
-      <c r="D53" s="22" t="s">
+      <c r="D53" t="s">
         <v>779</v>
       </c>
-      <c r="E53" s="22" t="s">
+      <c r="E53" t="s">
         <v>792</v>
       </c>
-      <c r="K53" s="14"/>
+      <c r="K53" s="13"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A54" s="22" t="s">
+      <c r="A54" t="s">
         <v>790</v>
       </c>
       <c r="B54" t="s">
         <v>793</v>
       </c>
-      <c r="C54" s="22" t="s">
+      <c r="C54" t="s">
         <v>795</v>
       </c>
-      <c r="D54" s="22" t="s">
+      <c r="D54" t="s">
         <v>779</v>
       </c>
-      <c r="E54" s="22" t="s">
+      <c r="E54" t="s">
         <v>792</v>
       </c>
-      <c r="J54" s="16"/>
+      <c r="J54" s="12"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A55" s="22" t="s">
+      <c r="A55" t="s">
         <v>782</v>
       </c>
       <c r="B55" t="s">
         <v>774</v>
       </c>
-      <c r="C55" s="22" t="s">
+      <c r="C55" t="s">
         <v>795</v>
       </c>
-      <c r="D55" s="22" t="s">
+      <c r="D55" t="s">
         <v>779</v>
       </c>
       <c r="E55" t="s">
         <v>797</v>
       </c>
-      <c r="J55" s="17"/>
+      <c r="J55" s="12"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A56" s="22" t="s">
+      <c r="A56" t="s">
         <v>785</v>
       </c>
       <c r="B56" t="s">
         <v>798</v>
       </c>
-      <c r="C56" s="22" t="s">
+      <c r="C56" t="s">
         <v>795</v>
       </c>
-      <c r="D56" s="22" t="s">
+      <c r="D56" t="s">
         <v>779</v>
       </c>
-      <c r="E56" s="22" t="s">
+      <c r="E56" t="s">
         <v>792</v>
       </c>
-      <c r="J56" s="18"/>
+      <c r="J56" s="12"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A57" s="22" t="s">
+      <c r="A57" t="s">
         <v>785</v>
       </c>
       <c r="B57" t="s">
         <v>799</v>
       </c>
-      <c r="C57" s="22" t="s">
+      <c r="C57" t="s">
         <v>795</v>
       </c>
-      <c r="D57" s="22" t="s">
+      <c r="D57" t="s">
         <v>779</v>
       </c>
-      <c r="E57" s="22" t="s">
+      <c r="E57" t="s">
         <v>792</v>
       </c>
-      <c r="J57" s="19"/>
+      <c r="J57" s="12"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A58" s="22" t="s">
+      <c r="A58" t="s">
         <v>787</v>
       </c>
       <c r="B58" t="s">
         <v>800</v>
       </c>
-      <c r="C58" s="22" t="s">
+      <c r="C58" t="s">
         <v>795</v>
       </c>
-      <c r="D58" s="22" t="s">
+      <c r="D58" t="s">
         <v>779</v>
       </c>
-      <c r="E58" s="22" t="s">
+      <c r="E58" t="s">
         <v>792</v>
       </c>
-      <c r="J58" s="20"/>
+      <c r="J58" s="12"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
@@ -45403,83 +45399,83 @@
       <c r="B59" t="s">
         <v>801</v>
       </c>
-      <c r="C59" s="22" t="s">
+      <c r="C59" t="s">
         <v>795</v>
       </c>
-      <c r="D59" s="22" t="s">
+      <c r="D59" t="s">
         <v>779</v>
       </c>
-      <c r="E59" s="22" t="s">
+      <c r="E59" t="s">
         <v>792</v>
       </c>
-      <c r="J59" s="21"/>
+      <c r="J59" s="12"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A60" s="22" t="s">
+      <c r="A60" t="s">
         <v>791</v>
       </c>
-      <c r="B60" s="22" t="s">
+      <c r="B60" t="s">
         <v>787</v>
       </c>
-      <c r="C60" s="22" t="s">
+      <c r="C60" t="s">
         <v>792</v>
       </c>
-      <c r="D60" s="22" t="s">
+      <c r="D60" t="s">
         <v>779</v>
       </c>
-      <c r="E60" s="22" t="s">
+      <c r="E60" t="s">
         <v>802</v>
       </c>
-      <c r="J60" s="23"/>
+      <c r="J60" s="12"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A61" s="22" t="s">
+      <c r="A61" t="s">
         <v>783</v>
       </c>
       <c r="B61" t="s">
         <v>803</v>
       </c>
-      <c r="C61" s="22" t="s">
+      <c r="C61" t="s">
         <v>795</v>
       </c>
-      <c r="D61" s="22" t="s">
+      <c r="D61" t="s">
         <v>779</v>
       </c>
-      <c r="E61" s="22" t="s">
+      <c r="E61" t="s">
         <v>792</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A62" s="22" t="s">
+      <c r="A62" t="s">
         <v>788</v>
       </c>
       <c r="B62" t="s">
         <v>804</v>
       </c>
-      <c r="C62" s="22" t="s">
+      <c r="C62" t="s">
         <v>795</v>
       </c>
-      <c r="D62" s="22" t="s">
+      <c r="D62" t="s">
         <v>779</v>
       </c>
-      <c r="E62" s="22" t="s">
+      <c r="E62" t="s">
         <v>792</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A63" s="22" t="s">
+      <c r="A63" t="s">
         <v>788</v>
       </c>
       <c r="B63" t="s">
         <v>805</v>
       </c>
-      <c r="C63" s="22" t="s">
+      <c r="C63" t="s">
         <v>795</v>
       </c>
-      <c r="D63" s="22" t="s">
+      <c r="D63" t="s">
         <v>779</v>
       </c>
-      <c r="E63" s="22" t="s">
+      <c r="E63" t="s">
         <v>792</v>
       </c>
     </row>
